--- a/DBDBDEEP.xlsx
+++ b/DBDBDEEP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\God PC-1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀프로젝트_WTP\meeting-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641569C6-7F6E-4C20-B365-1513BD16F899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69259C95-1D19-4BE4-AB9B-077BC4AFF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="1590" windowWidth="13110" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14475" yWindow="885" windowWidth="13110" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>계층, 트리구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 수정 일시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L35"/>
+  <dimension ref="A2:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -775,6 +787,12 @@
       <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1076,6 +1094,9 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -1084,16 +1105,13 @@
       <c r="C30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E31" t="s">
-        <v>47</v>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1101,7 +1119,7 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.3">
@@ -1109,16 +1127,21 @@
         <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
         <v>71</v>
       </c>
     </row>

--- a/DBDBDEEP.xlsx
+++ b/DBDBDEEP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀프로젝트_WTP\meeting-log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69259C95-1D19-4BE4-AB9B-077BC4AFF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3DCDAB-8D14-45A4-9C6B-9F25DCCD7CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="885" windowWidth="13110" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="1230" windowWidth="13110" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>최근 수정 일시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,11 +764,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -774,6 +776,11 @@
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
